--- a/XSSFTEST.xlsx
+++ b/XSSFTEST.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="4">
   <si>
-    <t>Column0</t>
+    <t>First Name</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t>Last Name</t>
   </si>
   <si>
-    <t>Column2</t>
+    <t>Special #</t>
   </si>
   <si>
     <t>0</t>
@@ -67,11 +67,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Test" ref="A1:C3" id="1" name="Test" totalsRowCount="1">
-  <tableColumns count="3">
-    <tableColumn name="Column0" id="1"/>
-    <tableColumn name="Column1" id="2"/>
-    <tableColumn name="Column2" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Test" ref="A1:J3" id="1" name="Test" totalsRowCount="1">
+  <tableColumns count="9">
+    <tableColumn name="First Name" id="1"/>
+    <tableColumn name="Last Name" id="2"/>
+    <tableColumn name="Special #" id="3"/>
+    <tableColumn name="Column" id="4"/>
+    <tableColumn name="Column" id="5"/>
+    <tableColumn name="Column" id="6"/>
+    <tableColumn name="Column" id="7"/>
+    <tableColumn name="Column" id="8"/>
+    <tableColumn name="Column" id="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showColumnStripes="false" showRowStripes="true"/>
 </table>
@@ -118,6 +124,72 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts>
